--- a/runningArea/40Missions_2.xlsx
+++ b/runningArea/40Missions_2.xlsx
@@ -5896,7 +5896,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>19</v>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <v>11</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>24</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -6032,7 +6032,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>25</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B37">
         <v>30</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -6100,7 +6100,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B39">
         <v>26</v>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B43">
         <v>36</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <v>27</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -6219,7 +6219,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B47">
         <v>23</v>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48">
         <v>28</v>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50">
         <v>20</v>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51">
         <v>39</v>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6338,7 +6338,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>22</v>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55">
         <v>38</v>
@@ -6389,7 +6389,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B56">
         <v>29</v>
@@ -6406,7 +6406,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58">
         <v>35</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B59">
         <v>31</v>
@@ -6457,7 +6457,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B60">
         <v>32</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -6491,7 +6491,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B63">
         <v>34</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -6542,7 +6542,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65">
         <v>6</v>
